--- a/real_life_playing/human_results/game2.xlsx
+++ b/real_life_playing/human_results/game2.xlsx
@@ -5893,11 +5893,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Artificial Player</t>
+          <t>Eleonora</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5913,11 +5913,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eleonora</t>
+          <t>Artificial Player</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
